--- a/code/代码清单.xlsx
+++ b/code/代码清单.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\学习\软件工程基础\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A315703-CD77-4181-8DD4-840A7EB1EDFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="189">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>export default class Game_con extends Laya.Script</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,10 +69,6 @@
   </si>
   <si>
     <t>export default class setRanking extends Laya.Script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export default class install extends Laya.Script</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -972,10 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调节音量及字体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进入剧本选择界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,7 +1096,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1595,21 +1584,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1623,16 +1612,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D6" s="12"/>
     </row>
   </sheetData>
@@ -1646,23 +1635,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C3:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82:E82"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1686,55 +1675,55 @@
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C8" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="G7" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C8" s="16"/>
       <c r="D8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1743,795 +1732,793 @@
         <v>14</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C11" s="16"/>
+      <c r="D11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C11" s="16"/>
-      <c r="D11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C12" s="16"/>
-      <c r="D12" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C13" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C14" s="12"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="12" t="s">
-        <v>104</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C15" s="12"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C16" s="12"/>
       <c r="D16" s="14"/>
       <c r="E16" s="12"/>
       <c r="F16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C17" s="12"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C18" s="12"/>
       <c r="D18" s="14"/>
       <c r="E18" s="12"/>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C19" s="12"/>
       <c r="D19" s="14"/>
       <c r="E19" s="12"/>
       <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C20" s="12"/>
       <c r="D20" s="14"/>
       <c r="E20" s="12"/>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C21" s="12"/>
       <c r="D21" s="14"/>
       <c r="E21" s="12"/>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C22" s="12"/>
       <c r="D22" s="14"/>
       <c r="E22" s="12"/>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C23" s="12"/>
       <c r="D23" s="14"/>
       <c r="E23" s="12"/>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C24" s="12"/>
       <c r="D24" s="14"/>
       <c r="E24" s="12"/>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C25" s="12"/>
       <c r="D25" s="14"/>
       <c r="E25" s="12"/>
       <c r="F25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C27" s="12"/>
-      <c r="D27" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>57</v>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C28" s="12"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="E28" s="14"/>
       <c r="F28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C29" s="12"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C30" s="12"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C31" s="12"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="15.75" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C32" s="12"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C33" s="12"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C34" s="12"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C35" s="12"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C36" s="12"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C37" s="12"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C38" s="12"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C39" s="12"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C40" s="12"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C41" s="12"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C42" s="12"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C43" s="12"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C44" s="12"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C45" s="12"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C46" s="12"/>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="12"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G46" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="14"/>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="14"/>
       <c r="F48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="14"/>
       <c r="F49" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="14"/>
       <c r="F50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G50" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="14"/>
+      <c r="E51" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C52" s="12"/>
-      <c r="D52" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="G52" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="12" t="s">
-        <v>133</v>
-      </c>
+      <c r="E53" s="12"/>
       <c r="F53" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="E65" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C66" s="12"/>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G66" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="13"/>
       <c r="F67" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="13"/>
       <c r="F68" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="13"/>
       <c r="F69" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="13"/>
       <c r="F70" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="F72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="13"/>
       <c r="F73" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="74" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
+      <c r="D74" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>168</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -2542,102 +2529,90 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G77" s="4" t="s">
+    </row>
+    <row r="78" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="13" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="78" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
       <c r="F78" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="79" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C79" s="12"/>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="12"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E79" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="80" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
       <c r="E80" s="13"/>
       <c r="F80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C81" s="12"/>
+      <c r="D81" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="81" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="G81" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="C82" s="12"/>
       <c r="D82" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="3:7" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="C83" s="12"/>
-      <c r="D83" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="86" spans="3:7" ht="14.25" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="3:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="3:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="D87" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E14:E26"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C12"/>
+  <mergeCells count="28">
+    <mergeCell ref="E13:E25"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
@@ -2647,23 +2622,23 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D81:E81"/>
     <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="C13:C83"/>
-    <mergeCell ref="E66:E74"/>
-    <mergeCell ref="D66:D74"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="E28:E45"/>
-    <mergeCell ref="D27:D45"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E53:E65"/>
-    <mergeCell ref="D52:D65"/>
-    <mergeCell ref="D13:D26"/>
+    <mergeCell ref="C12:C82"/>
+    <mergeCell ref="E65:E73"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E27:E44"/>
+    <mergeCell ref="D26:D44"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E52:E64"/>
+    <mergeCell ref="D51:D64"/>
+    <mergeCell ref="D12:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
